--- a/biology/Botanique/Calia_secundiflora/Calia_secundiflora.xlsx
+++ b/biology/Botanique/Calia_secundiflora/Calia_secundiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calia secundiflora, le haricot mescal, est une espèce d'arbustes de la famille des Fabaceae, originaire d'Amérique du Nord : Mexique, Nouveau-Mexique et Texas.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont petites, persistantes et d'aspect vernis.
 Les fleurs de violet à bleu poussent en grappes.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est implanté dans le sud-ouest des États-Unis et au Mexique.
 </t>
@@ -575,7 +591,9 @@
           <t>Propriété</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les graines contiennent un alcaloïde appelé cytisine. La cytisine provoque des nausées, des convulsions, des hallucinations voire la mort par arrêt respiratoire en cas de surdose.
 </t>
@@ -606,15 +624,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il sert de plante ornementale.
-Usage traditionnel
-L'usage traditionnel de Calia secundiflora aurait 6 000 ou 7 000 ans d'âge selon des traces archéologiques trouvées dans des grottes du Texas[1].
-Cet usage consisterait en un ancien culte préhistorique dont le haricot mescal faisait partie et qui a survécu sous différents noms en fonction des tribus : danse Wichita, danse du daim, danse du sifflet, danse du haricot rouge, danse de la société du médicament rouge[2].
-Selon l'expédition de Stephen Long en 1820, les Arapahos et les Iowa l'utilisaient  comme médicament et pour ses vertus hallucinogènes[2].
-Les graines servent à favoriser la divination en produisant des visions lors de rites initiatiques et elles servent aussi de stimulant et émétique lors de cérémonies[2].
-Le culte du haricot rouge a progressivement été remplacé par celui du peyotl sans doute car ce dernier est moins dangereux[2]
 </t>
         </is>
       </c>
@@ -640,10 +654,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Usage traditionnel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'usage traditionnel de Calia secundiflora aurait 6 000 ou 7 000 ans d'âge selon des traces archéologiques trouvées dans des grottes du Texas.
+Cet usage consisterait en un ancien culte préhistorique dont le haricot mescal faisait partie et qui a survécu sous différents noms en fonction des tribus : danse Wichita, danse du daim, danse du sifflet, danse du haricot rouge, danse de la société du médicament rouge.
+Selon l'expédition de Stephen Long en 1820, les Arapahos et les Iowa l'utilisaient  comme médicament et pour ses vertus hallucinogènes.
+Les graines servent à favoriser la divination en produisant des visions lors de rites initiatiques et elles servent aussi de stimulant et émétique lors de cérémonies.
+Le culte du haricot rouge a progressivement été remplacé par celui du peyotl sans doute car ce dernier est moins dangereux
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calia_secundiflora</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calia_secundiflora</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Broussonetia secundiflora Ortega
 Sophora secundiflora (Ortega) Lag. ex DC. - Ce nom est encore accepté par certains auteurs.</t>
